--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A7B661-8E43-409B-8330-B2CB784D4396}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,110 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+  <si>
+    <t>分支名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否叠加模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加模型结构是否一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">master </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cifar10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试集数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +429,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="8.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399CC4D6-0458-4484-AFCD-6C57E250D329}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,14 +20,547 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="130">
+  <si>
+    <t>分支名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否叠加模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加模型结构是否一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">master </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cifar10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试集数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否专家网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上了专家网络后，对比不同的叠加数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个网络另外两个是角度生成网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有四个attention 在输入层作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做一个一个网络输出所有相位的实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融合专家 参数减少到4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8个网络另外4个是角度生成网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6个网络另外3个是角度生成网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是异构的实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个网络生成所有相位并且约束到了-2pi 到2pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并且角度差值的平均是8.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个网络生成所有相位并且约束到了-pi 到pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.79的相位差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个网络另外两个是角度生成网络 加了np的角度限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个网络另外两个是角度生成网络 加了2pi的角度限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让角度和R用同一个网络输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用R去生成角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用R和X去生成角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个输入限制attention到0-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用R和X去生成角度|先把X生成10维再融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention看不同部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention看不同部分生成角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个通道分开去做，6个网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个专家网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异构加attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个通道分别专家网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个通道分开，角度只用全连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN生成角度，全连接生成R，两个网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC实数，卷积relu实部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC实数，卷积relu虚部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个卷积输出都角度relu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个卷积输出都半径relu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个卷积输出都半径relu，输入实部虚部都是图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实数网络re.lu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实数网络的cifar10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实数网络mnist，不是ADAM，lRATE=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实数网络mnist，是ADAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复数网络mnist，是ADAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复数网络mnist，不是ADAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，3，2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实数网络cifar，是ADAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实数网络cifar，不是ADAM，lRATE=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复数网络cifar，是ADAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复数网络cifar，不是ADAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wavelet  real cifar10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wavelet  complex cifar10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256,128,64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,16,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,16,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36，18，16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3:180,64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,18,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,18,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40，22，8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44,22,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_net,complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,16,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代10W个batch=128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128，64，64：384，192，10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc:60,30,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代20W个batch=128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex_radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex_radius-per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_variable_net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vavelet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20Wbatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个网络集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32，16，16：60，30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个网络集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,3,3],[128,64,64]</t>
+  </si>
+  <si>
+    <t>以下集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +584,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +900,2257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="J151" sqref="J151:O152"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>30000</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>30000</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J5" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>30000</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.878</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>30000</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>30000</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>30000</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>30000</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>30000</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>30000</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>30000</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>30000</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>30000</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>30000</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>30000</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>30000</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>30000</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>30000</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>30000</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>30000</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>30000</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>30000</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>30000</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>30000</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>30000</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K35" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K36" s="1">
+        <v>0.8590000000000001</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="K37" s="1">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K38" s="1">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39">
+        <v>50000</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J40" s="13">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J41" s="13">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J42" s="13">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J43" s="13">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J45" s="13">
+        <v>0.995</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J46" s="13">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J47" s="13">
+        <v>0.996</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J48" s="13">
+        <v>0.995</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J50" s="13">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J51" s="13">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J52" s="13">
+        <v>0.99430000000000007</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J53" s="13">
+        <v>0.99349999999999994</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J55" s="13">
+        <v>0.995</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J56" s="13">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J57" s="13">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J58" s="13">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J60" s="13">
+        <v>0.99438000000000004</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J61" s="13">
+        <v>0.9951000000000001</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J62" s="13">
+        <v>0.99473999999999996</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J63" s="13">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J66" s="13">
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J67" s="13">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J68" s="13">
+        <v>0.84726000000000001</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J69" s="13">
+        <v>0.84848999999999997</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J71" s="13">
+        <v>0.85392000000000001</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J72" s="13">
+        <v>0.85360999999999998</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J73" s="13">
+        <v>0.85526000000000002</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J74" s="13">
+        <v>0.85687999999999998</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J76" s="13">
+        <v>0.84480999999999995</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J77" s="13">
+        <v>0.84174000000000004</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J78" s="13">
+        <v>0.84828999999999999</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J79" s="13">
+        <v>0.84682000000000002</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J81" s="13">
+        <v>0.84841</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J82" s="13">
+        <v>0.84574000000000005</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J83" s="13">
+        <v>0.85011999999999999</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J84" s="13">
+        <v>0.84982000000000002</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J86" s="13">
+        <v>0.84807999999999995</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M86" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J87" s="13">
+        <v>0.84133000000000002</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J88" s="13">
+        <v>0.84948999999999997</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J89" s="13">
+        <v>0.84582999999999997</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J92" s="13">
+        <v>0.84828000000000003</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J93" s="13">
+        <v>0.84308000000000005</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J94" s="13">
+        <v>0.84984999999999999</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="10:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="J95" s="13">
+        <v>0.84997</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J97" s="13">
+        <v>0.86807000000000001</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J98" s="13">
+        <v>0.86968999999999996</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J100" s="13">
+        <v>0.83391999999999999</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J101" s="13">
+        <v>0.84106999999999998</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J103" s="13">
+        <v>0.84545000000000003</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J104" s="13">
+        <v>0.84716000000000002</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J106" s="13">
+        <v>0.84711000000000003</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J107" s="13">
+        <v>0.84875</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J109" s="13">
+        <v>0.8488</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J110" s="13">
+        <v>0.85160999999999998</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J112" s="13">
+        <v>0.84523000000000004</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M112" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J113" s="13">
+        <v>0.84921000000000002</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J115" s="13">
+        <v>0.83752000000000004</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M115" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J116" s="13">
+        <v>0.84202999999999995</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J118" s="13">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="L118" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M118" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J119" s="13">
+        <v>0.84723000000000004</v>
+      </c>
+      <c r="L119" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J121" s="13">
+        <v>0.84769000000000005</v>
+      </c>
+      <c r="L121" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M121" t="s">
+        <v>112</v>
+      </c>
+      <c r="N121" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J122" s="13">
+        <v>0.84641999999999995</v>
+      </c>
+      <c r="L122" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="L123" s="3"/>
+    </row>
+    <row r="127" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J128" s="13">
+        <v>0.81686000000000003</v>
+      </c>
+      <c r="L128" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M128" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J130" s="13">
+        <v>0.84889000000000003</v>
+      </c>
+      <c r="L130" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M130" t="s">
+        <v>112</v>
+      </c>
+      <c r="N130" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J131" s="13">
+        <v>0.85126000000000002</v>
+      </c>
+      <c r="L131" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M131" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J134" s="13">
+        <v>0.82460999999999995</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J135" s="13">
+        <v>0.83011000000000001</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="L136" s="3"/>
+    </row>
+    <row r="137" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J137" s="13">
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M137" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="138" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J138" s="13">
+        <v>0.84733000000000003</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="L139" s="3"/>
+    </row>
+    <row r="140" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="L140" s="3"/>
+    </row>
+    <row r="141" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J141" s="13">
+        <v>0.85063</v>
+      </c>
+      <c r="L141" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M141" t="s">
+        <v>123</v>
+      </c>
+      <c r="N141" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J142" s="13">
+        <v>0.84301999999999999</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="L143" s="3"/>
+    </row>
+    <row r="144" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J144" s="13">
+        <v>0.84955000000000003</v>
+      </c>
+      <c r="L144" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M144" t="s">
+        <v>125</v>
+      </c>
+      <c r="N144" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="145" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J145" s="13">
+        <v>0.84835000000000005</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J147" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J148" s="13">
+        <v>0.84965000000000002</v>
+      </c>
+      <c r="L148" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M148" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J149" s="13">
+        <v>0.84716000000000002</v>
+      </c>
+      <c r="L149" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="L151" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M151" t="s">
+        <v>127</v>
+      </c>
+      <c r="N151" t="s">
+        <v>128</v>
+      </c>
+      <c r="O151" s="15">
+        <v>384192</v>
+      </c>
+    </row>
+    <row r="152" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J152" s="13">
+        <v>0.86516000000000004</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="L153" s="3"/>
+    </row>
+    <row r="154" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="L154" s="3"/>
+    </row>
+    <row r="155" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="L155" s="3"/>
+    </row>
+    <row r="156" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="L156" s="3"/>
+    </row>
+    <row r="157" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="L157" s="3"/>
+    </row>
+    <row r="158" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="L158" s="3"/>
+    </row>
+    <row r="159" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="L159" s="3"/>
+    </row>
+    <row r="160" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="L160" s="3"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L161" s="3"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>34</v>
+      </c>
+      <c r="L162" s="3"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163">
+        <v>30000</v>
+      </c>
+      <c r="C163">
+        <v>100</v>
+      </c>
+      <c r="D163" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163" t="s">
+        <v>21</v>
+      </c>
+      <c r="H163" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" t="s">
+        <v>11</v>
+      </c>
+      <c r="J163" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L163" s="3"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164">
+        <v>30000</v>
+      </c>
+      <c r="C164">
+        <v>100</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" t="s">
+        <v>17</v>
+      </c>
+      <c r="I164" t="s">
+        <v>11</v>
+      </c>
+      <c r="J164" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K164" s="1">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="L164" s="3"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165">
+        <v>30000</v>
+      </c>
+      <c r="C165">
+        <v>100</v>
+      </c>
+      <c r="D165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" t="s">
+        <v>16</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" t="s">
+        <v>11</v>
+      </c>
+      <c r="J165" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K165" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166">
+        <v>30000</v>
+      </c>
+      <c r="C166">
+        <v>100</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" t="s">
+        <v>17</v>
+      </c>
+      <c r="I166" t="s">
+        <v>11</v>
+      </c>
+      <c r="J166" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K166" s="1">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>58</v>
+      </c>
+      <c r="B167">
+        <v>30000</v>
+      </c>
+      <c r="C167">
+        <v>100</v>
+      </c>
+      <c r="D167" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167">
+        <v>4</v>
+      </c>
+      <c r="G167" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" t="s">
+        <v>17</v>
+      </c>
+      <c r="I167" t="s">
+        <v>11</v>
+      </c>
+      <c r="J167" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K167" s="1">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L168" s="3"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L169" s="3"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L170" s="3"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L171" s="3"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L172" s="3"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L173" s="3"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L174" s="3"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L175" s="3"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L176" s="3"/>
+    </row>
+    <row r="177" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L177" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L6:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399CC4D6-0458-4484-AFCD-6C57E250D329}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE52ACA-6EE6-4002-AB27-A08E908F7F93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="135">
   <si>
     <t>分支名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,6 +537,26 @@
   </si>
   <si>
     <t>以下集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cifar100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet-v2-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1W个batch完全收敛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,43 +603,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -901,15 +895,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:O362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151:O152"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -979,13 +973,12 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>10000</v>
       </c>
       <c r="K2" s="1">
         <v>0.78</v>
       </c>
-      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1015,13 +1008,12 @@
       <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>10000</v>
       </c>
       <c r="K3" s="2">
         <v>0.86399999999999999</v>
       </c>
-      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1051,16 +1043,15 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>10000</v>
       </c>
       <c r="K4" s="2">
         <v>0.86099999999999999</v>
       </c>
-      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J5" s="3">
+      <c r="J5">
         <v>10000</v>
       </c>
     </row>
@@ -1092,13 +1083,13 @@
       <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>10000</v>
       </c>
       <c r="K6" s="1">
         <v>0.878</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1130,13 +1121,13 @@
       <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>10000</v>
       </c>
       <c r="K7" s="2">
         <v>0.87</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1166,13 +1157,13 @@
       <c r="I8" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>10000</v>
       </c>
       <c r="K8" s="2">
         <v>0.85799999999999998</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1202,13 +1193,13 @@
       <c r="I9" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>10000</v>
       </c>
       <c r="K9" s="2">
         <v>0.85</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1240,13 +1231,13 @@
       <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>10000</v>
       </c>
       <c r="K10" s="2">
         <v>0.86299999999999999</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1278,13 +1269,13 @@
       <c r="I11" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11">
         <v>10000</v>
       </c>
       <c r="K11" s="2">
         <v>0.84</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1316,13 +1307,13 @@
       <c r="I12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>10000</v>
       </c>
       <c r="K12" s="2">
         <v>0.85</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1354,13 +1345,13 @@
       <c r="I13" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13">
         <v>10000</v>
       </c>
       <c r="K13" s="2">
         <v>0.86199999999999999</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1392,13 +1383,13 @@
       <c r="I14" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>10000</v>
       </c>
       <c r="K14" s="2">
         <v>0.86199999999999999</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1430,13 +1421,13 @@
       <c r="I15" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15">
         <v>10000</v>
       </c>
       <c r="K15" s="1">
         <v>0.84399999999999997</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1468,13 +1459,13 @@
       <c r="I16" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>10000</v>
       </c>
       <c r="K16" s="1">
         <v>0.86099999999999999</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" t="s">
         <v>31</v>
       </c>
       <c r="M16" t="s">
@@ -1509,13 +1500,13 @@
       <c r="I17" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17">
         <v>10000</v>
       </c>
       <c r="K17" s="1">
         <v>0.84499999999999997</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M17" t="s">
@@ -1550,13 +1541,13 @@
       <c r="I18" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
         <v>10000</v>
       </c>
       <c r="K18" s="1">
         <v>0.85</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1588,13 +1579,13 @@
       <c r="I19" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19">
         <v>10000</v>
       </c>
       <c r="K19" s="2">
         <v>0.85199999999999998</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1626,13 +1617,13 @@
       <c r="I20" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20">
         <v>10000</v>
       </c>
       <c r="K20" s="2">
         <v>0.85199999999999998</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1664,13 +1655,13 @@
       <c r="I21" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21">
         <v>10000</v>
       </c>
       <c r="K21" s="1">
         <v>0.85099999999999998</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1702,13 +1693,13 @@
       <c r="I22" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22">
         <v>10000</v>
       </c>
       <c r="K22" s="2">
         <v>0.85</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1740,13 +1731,13 @@
       <c r="I23" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23">
         <v>10000</v>
       </c>
       <c r="K23" s="1">
         <v>0.85599999999999998</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1778,13 +1769,13 @@
       <c r="I24" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24">
         <v>10000</v>
       </c>
       <c r="K24" s="1">
         <v>0.85499999999999998</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1816,13 +1807,13 @@
       <c r="I25" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25">
         <v>10000</v>
       </c>
       <c r="K25" s="1">
         <v>0.86199999999999999</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1854,13 +1845,13 @@
       <c r="I26" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26">
         <v>10000</v>
       </c>
       <c r="K26" s="1">
         <v>0.86199999999999999</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1892,13 +1883,13 @@
       <c r="I27" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27">
         <v>10000</v>
       </c>
       <c r="K27" s="2">
         <v>0.83</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1909,7 +1900,7 @@
       <c r="K28" s="1">
         <v>0.82899999999999996</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1920,18 +1911,15 @@
       <c r="K29" s="1">
         <v>0.70699999999999996</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1939,7 +1927,7 @@
       <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1950,7 +1938,7 @@
       <c r="K33" s="1">
         <v>0.86</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1961,7 +1949,7 @@
       <c r="K34" s="1">
         <v>0.85199999999999998</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1969,7 +1957,7 @@
       <c r="K35" s="1">
         <v>0.86</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1977,7 +1965,7 @@
       <c r="K36" s="1">
         <v>0.8590000000000001</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1985,7 +1973,7 @@
       <c r="K37" s="1">
         <v>0.86099999999999999</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1993,7 +1981,7 @@
       <c r="K38" s="1">
         <v>0.83699999999999997</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2010,15 +1998,15 @@
       <c r="K39" s="1">
         <v>0.84099999999999997</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J40" s="13">
+      <c r="J40" s="4">
         <v>0.99509999999999998</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M40" t="s">
@@ -2026,10 +2014,10 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J41" s="13">
+      <c r="J41" s="4">
         <v>0.99399999999999999</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="3" t="s">
         <v>79</v>
       </c>
       <c r="M41" t="s">
@@ -2037,10 +2025,10 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J42" s="13">
+      <c r="J42" s="4">
         <v>0.99529999999999996</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="3" t="s">
         <v>81</v>
       </c>
       <c r="M42" t="s">
@@ -2048,10 +2036,10 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J43" s="13">
+      <c r="J43" s="4">
         <v>0.99399999999999999</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="3" t="s">
         <v>83</v>
       </c>
       <c r="M43" t="s">
@@ -2059,10 +2047,10 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J45" s="13">
+      <c r="J45" s="4">
         <v>0.995</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M45" t="s">
@@ -2070,10 +2058,10 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J46" s="13">
+      <c r="J46" s="4">
         <v>0.99490000000000001</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="3" t="s">
         <v>79</v>
       </c>
       <c r="M46" t="s">
@@ -2081,10 +2069,10 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J47" s="13">
+      <c r="J47" s="4">
         <v>0.996</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="3" t="s">
         <v>81</v>
       </c>
       <c r="M47" t="s">
@@ -2092,24 +2080,21 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J48" s="13">
+      <c r="J48" s="4">
         <v>0.995</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="3" t="s">
         <v>83</v>
       </c>
       <c r="M48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L49" s="3"/>
-    </row>
     <row r="50" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J50" s="13">
+      <c r="J50" s="4">
         <v>0.99360000000000004</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M50" t="s">
@@ -2117,10 +2102,10 @@
       </c>
     </row>
     <row r="51" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J51" s="13">
+      <c r="J51" s="4">
         <v>0.99309999999999998</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="3" t="s">
         <v>79</v>
       </c>
       <c r="M51" t="s">
@@ -2128,10 +2113,10 @@
       </c>
     </row>
     <row r="52" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J52" s="13">
+      <c r="J52" s="4">
         <v>0.99430000000000007</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="3" t="s">
         <v>81</v>
       </c>
       <c r="M52" t="s">
@@ -2139,24 +2124,21 @@
       </c>
     </row>
     <row r="53" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J53" s="13">
+      <c r="J53" s="4">
         <v>0.99349999999999994</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="L53" s="3" t="s">
         <v>83</v>
       </c>
       <c r="M53" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L54" s="3"/>
-    </row>
     <row r="55" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J55" s="13">
+      <c r="J55" s="4">
         <v>0.995</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="L55" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M55" t="s">
@@ -2164,10 +2146,10 @@
       </c>
     </row>
     <row r="56" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J56" s="13">
+      <c r="J56" s="4">
         <v>0.99370000000000003</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="3" t="s">
         <v>79</v>
       </c>
       <c r="M56" t="s">
@@ -2175,10 +2157,10 @@
       </c>
     </row>
     <row r="57" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J57" s="13">
+      <c r="J57" s="4">
         <v>0.99519999999999997</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57" s="3" t="s">
         <v>81</v>
       </c>
       <c r="M57" t="s">
@@ -2186,10 +2168,10 @@
       </c>
     </row>
     <row r="58" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J58" s="13">
+      <c r="J58" s="4">
         <v>0.99429999999999996</v>
       </c>
-      <c r="L58" s="11" t="s">
+      <c r="L58" s="3" t="s">
         <v>83</v>
       </c>
       <c r="M58" t="s">
@@ -2197,10 +2179,10 @@
       </c>
     </row>
     <row r="60" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J60" s="13">
+      <c r="J60" s="4">
         <v>0.99438000000000004</v>
       </c>
-      <c r="L60" s="11" t="s">
+      <c r="L60" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M60" t="s">
@@ -2208,10 +2190,10 @@
       </c>
     </row>
     <row r="61" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J61" s="13">
+      <c r="J61" s="4">
         <v>0.9951000000000001</v>
       </c>
-      <c r="L61" s="11" t="s">
+      <c r="L61" s="3" t="s">
         <v>79</v>
       </c>
       <c r="M61" t="s">
@@ -2219,10 +2201,10 @@
       </c>
     </row>
     <row r="62" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J62" s="13">
+      <c r="J62" s="4">
         <v>0.99473999999999996</v>
       </c>
-      <c r="L62" s="11" t="s">
+      <c r="L62" s="3" t="s">
         <v>81</v>
       </c>
       <c r="M62" t="s">
@@ -2230,27 +2212,21 @@
       </c>
     </row>
     <row r="63" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J63" s="13">
+      <c r="J63" s="4">
         <v>0.99519999999999997</v>
       </c>
-      <c r="L63" s="11" t="s">
+      <c r="L63" s="3" t="s">
         <v>83</v>
       </c>
       <c r="M63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L65" s="3"/>
-    </row>
     <row r="66" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J66" s="13">
+      <c r="J66" s="4">
         <v>0.84640000000000004</v>
       </c>
-      <c r="L66" s="11" t="s">
+      <c r="L66" s="3" t="s">
         <v>88</v>
       </c>
       <c r="M66" t="s">
@@ -2258,10 +2234,10 @@
       </c>
     </row>
     <row r="67" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J67" s="13">
+      <c r="J67" s="4">
         <v>0.84399999999999997</v>
       </c>
-      <c r="L67" s="11" t="s">
+      <c r="L67" s="3" t="s">
         <v>89</v>
       </c>
       <c r="M67" t="s">
@@ -2269,10 +2245,10 @@
       </c>
     </row>
     <row r="68" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J68" s="13">
+      <c r="J68" s="4">
         <v>0.84726000000000001</v>
       </c>
-      <c r="L68" s="11" t="s">
+      <c r="L68" s="3" t="s">
         <v>90</v>
       </c>
       <c r="M68" t="s">
@@ -2280,24 +2256,21 @@
       </c>
     </row>
     <row r="69" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J69" s="13">
+      <c r="J69" s="4">
         <v>0.84848999999999997</v>
       </c>
-      <c r="L69" s="11" t="s">
+      <c r="L69" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M69" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L70" s="3"/>
-    </row>
     <row r="71" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J71" s="13">
+      <c r="J71" s="4">
         <v>0.85392000000000001</v>
       </c>
-      <c r="L71" s="11" t="s">
+      <c r="L71" s="3" t="s">
         <v>88</v>
       </c>
       <c r="M71" t="s">
@@ -2305,10 +2278,10 @@
       </c>
     </row>
     <row r="72" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J72" s="13">
+      <c r="J72" s="4">
         <v>0.85360999999999998</v>
       </c>
-      <c r="L72" s="11" t="s">
+      <c r="L72" s="3" t="s">
         <v>89</v>
       </c>
       <c r="M72" t="s">
@@ -2316,10 +2289,10 @@
       </c>
     </row>
     <row r="73" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J73" s="13">
+      <c r="J73" s="4">
         <v>0.85526000000000002</v>
       </c>
-      <c r="L73" s="11" t="s">
+      <c r="L73" s="3" t="s">
         <v>90</v>
       </c>
       <c r="M73" t="s">
@@ -2327,24 +2300,21 @@
       </c>
     </row>
     <row r="74" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J74" s="13">
+      <c r="J74" s="4">
         <v>0.85687999999999998</v>
       </c>
-      <c r="L74" s="11" t="s">
+      <c r="L74" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M74" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L75" s="3"/>
-    </row>
     <row r="76" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J76" s="13">
+      <c r="J76" s="4">
         <v>0.84480999999999995</v>
       </c>
-      <c r="L76" s="11" t="s">
+      <c r="L76" s="3" t="s">
         <v>88</v>
       </c>
       <c r="M76" t="s">
@@ -2352,10 +2322,10 @@
       </c>
     </row>
     <row r="77" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J77" s="13">
+      <c r="J77" s="4">
         <v>0.84174000000000004</v>
       </c>
-      <c r="L77" s="11" t="s">
+      <c r="L77" s="3" t="s">
         <v>89</v>
       </c>
       <c r="M77" t="s">
@@ -2363,10 +2333,10 @@
       </c>
     </row>
     <row r="78" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J78" s="13">
+      <c r="J78" s="4">
         <v>0.84828999999999999</v>
       </c>
-      <c r="L78" s="11" t="s">
+      <c r="L78" s="3" t="s">
         <v>90</v>
       </c>
       <c r="M78" t="s">
@@ -2374,24 +2344,21 @@
       </c>
     </row>
     <row r="79" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J79" s="13">
+      <c r="J79" s="4">
         <v>0.84682000000000002</v>
       </c>
-      <c r="L79" s="11" t="s">
+      <c r="L79" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M79" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L80" s="3"/>
-    </row>
     <row r="81" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J81" s="13">
+      <c r="J81" s="4">
         <v>0.84841</v>
       </c>
-      <c r="L81" s="11" t="s">
+      <c r="L81" s="3" t="s">
         <v>88</v>
       </c>
       <c r="M81" t="s">
@@ -2399,10 +2366,10 @@
       </c>
     </row>
     <row r="82" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J82" s="13">
+      <c r="J82" s="4">
         <v>0.84574000000000005</v>
       </c>
-      <c r="L82" s="11" t="s">
+      <c r="L82" s="3" t="s">
         <v>89</v>
       </c>
       <c r="M82" t="s">
@@ -2410,10 +2377,10 @@
       </c>
     </row>
     <row r="83" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J83" s="13">
+      <c r="J83" s="4">
         <v>0.85011999999999999</v>
       </c>
-      <c r="L83" s="11" t="s">
+      <c r="L83" s="3" t="s">
         <v>90</v>
       </c>
       <c r="M83" t="s">
@@ -2421,24 +2388,21 @@
       </c>
     </row>
     <row r="84" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J84" s="13">
+      <c r="J84" s="4">
         <v>0.84982000000000002</v>
       </c>
-      <c r="L84" s="11" t="s">
+      <c r="L84" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M84" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L85" s="3"/>
-    </row>
     <row r="86" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J86" s="13">
+      <c r="J86" s="4">
         <v>0.84807999999999995</v>
       </c>
-      <c r="L86" s="11" t="s">
+      <c r="L86" s="3" t="s">
         <v>88</v>
       </c>
       <c r="M86" t="s">
@@ -2446,10 +2410,10 @@
       </c>
     </row>
     <row r="87" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J87" s="13">
+      <c r="J87" s="4">
         <v>0.84133000000000002</v>
       </c>
-      <c r="L87" s="11" t="s">
+      <c r="L87" s="3" t="s">
         <v>89</v>
       </c>
       <c r="M87" t="s">
@@ -2457,10 +2421,10 @@
       </c>
     </row>
     <row r="88" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J88" s="13">
+      <c r="J88" s="4">
         <v>0.84948999999999997</v>
       </c>
-      <c r="L88" s="11" t="s">
+      <c r="L88" s="3" t="s">
         <v>90</v>
       </c>
       <c r="M88" t="s">
@@ -2468,27 +2432,21 @@
       </c>
     </row>
     <row r="89" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J89" s="13">
+      <c r="J89" s="4">
         <v>0.84582999999999997</v>
       </c>
-      <c r="L89" s="11" t="s">
+      <c r="L89" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L91" s="3"/>
-    </row>
     <row r="92" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J92" s="13">
+      <c r="J92" s="4">
         <v>0.84828000000000003</v>
       </c>
-      <c r="L92" s="11" t="s">
+      <c r="L92" s="3" t="s">
         <v>88</v>
       </c>
       <c r="M92" t="s">
@@ -2496,10 +2454,10 @@
       </c>
     </row>
     <row r="93" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J93" s="13">
+      <c r="J93" s="4">
         <v>0.84308000000000005</v>
       </c>
-      <c r="L93" s="11" t="s">
+      <c r="L93" s="3" t="s">
         <v>89</v>
       </c>
       <c r="M93" t="s">
@@ -2507,10 +2465,10 @@
       </c>
     </row>
     <row r="94" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J94" s="13">
+      <c r="J94" s="4">
         <v>0.84984999999999999</v>
       </c>
-      <c r="L94" s="11" t="s">
+      <c r="L94" s="3" t="s">
         <v>90</v>
       </c>
       <c r="M94" t="s">
@@ -2518,10 +2476,10 @@
       </c>
     </row>
     <row r="95" spans="10:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="J95" s="13">
+      <c r="J95" s="4">
         <v>0.84997</v>
       </c>
-      <c r="L95" s="11" t="s">
+      <c r="L95" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M95" t="s">
@@ -2529,10 +2487,10 @@
       </c>
     </row>
     <row r="97" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J97" s="13">
+      <c r="J97" s="4">
         <v>0.86807000000000001</v>
       </c>
-      <c r="L97" s="11" t="s">
+      <c r="L97" s="3" t="s">
         <v>97</v>
       </c>
       <c r="M97" t="s">
@@ -2540,18 +2498,18 @@
       </c>
     </row>
     <row r="98" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J98" s="13">
+      <c r="J98" s="4">
         <v>0.86968999999999996</v>
       </c>
-      <c r="L98" s="11" t="s">
+      <c r="L98" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J100" s="13">
+      <c r="J100" s="4">
         <v>0.83391999999999999</v>
       </c>
-      <c r="L100" s="11" t="s">
+      <c r="L100" s="3" t="s">
         <v>97</v>
       </c>
       <c r="M100" t="s">
@@ -2559,21 +2517,18 @@
       </c>
     </row>
     <row r="101" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J101" s="13">
+      <c r="J101" s="4">
         <v>0.84106999999999998</v>
       </c>
-      <c r="L101" s="11" t="s">
+      <c r="L101" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L102" s="3"/>
-    </row>
     <row r="103" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J103" s="13">
+      <c r="J103" s="4">
         <v>0.84545000000000003</v>
       </c>
-      <c r="L103" s="11" t="s">
+      <c r="L103" s="3" t="s">
         <v>97</v>
       </c>
       <c r="M103" t="s">
@@ -2581,21 +2536,18 @@
       </c>
     </row>
     <row r="104" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J104" s="13">
+      <c r="J104" s="4">
         <v>0.84716000000000002</v>
       </c>
-      <c r="L104" s="11" t="s">
+      <c r="L104" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L105" s="3"/>
-    </row>
     <row r="106" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J106" s="13">
+      <c r="J106" s="4">
         <v>0.84711000000000003</v>
       </c>
-      <c r="L106" s="11" t="s">
+      <c r="L106" s="3" t="s">
         <v>97</v>
       </c>
       <c r="M106" t="s">
@@ -2603,21 +2555,18 @@
       </c>
     </row>
     <row r="107" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J107" s="13">
+      <c r="J107" s="4">
         <v>0.84875</v>
       </c>
-      <c r="L107" s="11" t="s">
+      <c r="L107" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L108" s="3"/>
-    </row>
     <row r="109" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J109" s="13">
+      <c r="J109" s="4">
         <v>0.8488</v>
       </c>
-      <c r="L109" s="11" t="s">
+      <c r="L109" s="3" t="s">
         <v>105</v>
       </c>
       <c r="M109" t="s">
@@ -2625,21 +2574,18 @@
       </c>
     </row>
     <row r="110" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J110" s="13">
+      <c r="J110" s="4">
         <v>0.85160999999999998</v>
       </c>
-      <c r="L110" s="11" t="s">
+      <c r="L110" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="L111" s="3"/>
-    </row>
     <row r="112" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J112" s="13">
+      <c r="J112" s="4">
         <v>0.84523000000000004</v>
       </c>
-      <c r="L112" s="11" t="s">
+      <c r="L112" s="3" t="s">
         <v>97</v>
       </c>
       <c r="M112" t="s">
@@ -2647,21 +2593,18 @@
       </c>
     </row>
     <row r="113" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J113" s="13">
+      <c r="J113" s="4">
         <v>0.84921000000000002</v>
       </c>
-      <c r="L113" s="11" t="s">
+      <c r="L113" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="L114" s="3"/>
-    </row>
     <row r="115" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J115" s="13">
+      <c r="J115" s="4">
         <v>0.83752000000000004</v>
       </c>
-      <c r="L115" s="11" t="s">
+      <c r="L115" s="3" t="s">
         <v>97</v>
       </c>
       <c r="M115" t="s">
@@ -2669,18 +2612,18 @@
       </c>
     </row>
     <row r="116" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J116" s="13">
+      <c r="J116" s="4">
         <v>0.84202999999999995</v>
       </c>
-      <c r="L116" s="11" t="s">
+      <c r="L116" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="118" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J118" s="13">
+      <c r="J118" s="4">
         <v>0.84670000000000001</v>
       </c>
-      <c r="L118" s="12" t="s">
+      <c r="L118" s="3" t="s">
         <v>97</v>
       </c>
       <c r="M118" t="s">
@@ -2688,18 +2631,18 @@
       </c>
     </row>
     <row r="119" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J119" s="13">
+      <c r="J119" s="4">
         <v>0.84723000000000004</v>
       </c>
-      <c r="L119" s="12" t="s">
+      <c r="L119" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="121" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J121" s="13">
+      <c r="J121" s="4">
         <v>0.84769000000000005</v>
       </c>
-      <c r="L121" s="12" t="s">
+      <c r="L121" s="3" t="s">
         <v>97</v>
       </c>
       <c r="M121" t="s">
@@ -2710,27 +2653,21 @@
       </c>
     </row>
     <row r="122" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J122" s="13">
+      <c r="J122" s="4">
         <v>0.84641999999999995</v>
       </c>
-      <c r="L122" s="12" t="s">
+      <c r="L122" s="3" t="s">
         <v>98</v>
       </c>
       <c r="M122" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="L123" s="3"/>
-    </row>
-    <row r="127" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="L127" s="3"/>
-    </row>
     <row r="128" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J128" s="13">
+      <c r="J128" s="4">
         <v>0.81686000000000003</v>
       </c>
-      <c r="L128" s="12" t="s">
+      <c r="L128" s="3" t="s">
         <v>111</v>
       </c>
       <c r="M128" t="s">
@@ -2738,10 +2675,10 @@
       </c>
     </row>
     <row r="130" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J130" s="13">
+      <c r="J130" s="4">
         <v>0.84889000000000003</v>
       </c>
-      <c r="L130" s="12" t="s">
+      <c r="L130" s="3" t="s">
         <v>97</v>
       </c>
       <c r="M130" t="s">
@@ -2752,10 +2689,10 @@
       </c>
     </row>
     <row r="131" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J131" s="13">
+      <c r="J131" s="4">
         <v>0.85126000000000002</v>
       </c>
-      <c r="L131" s="12" t="s">
+      <c r="L131" s="3" t="s">
         <v>98</v>
       </c>
       <c r="M131" t="s">
@@ -2763,29 +2700,26 @@
       </c>
     </row>
     <row r="134" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J134" s="13">
+      <c r="J134" s="4">
         <v>0.82460999999999995</v>
       </c>
-      <c r="L134" s="3" t="s">
+      <c r="L134" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="135" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J135" s="13">
+      <c r="J135" s="4">
         <v>0.83011000000000001</v>
       </c>
-      <c r="L135" s="3" t="s">
+      <c r="L135" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="L136" s="3"/>
-    </row>
     <row r="137" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J137" s="13">
+      <c r="J137" s="4">
         <v>0.82369999999999999</v>
       </c>
-      <c r="L137" s="3" t="s">
+      <c r="L137" t="s">
         <v>119</v>
       </c>
       <c r="M137" t="s">
@@ -2793,24 +2727,18 @@
       </c>
     </row>
     <row r="138" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J138" s="13">
+      <c r="J138" s="4">
         <v>0.84733000000000003</v>
       </c>
-      <c r="L138" s="3" t="s">
+      <c r="L138" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="139" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="L139" s="3"/>
-    </row>
-    <row r="140" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="L140" s="3"/>
-    </row>
     <row r="141" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J141" s="13">
+      <c r="J141" s="4">
         <v>0.85063</v>
       </c>
-      <c r="L141" s="12" t="s">
+      <c r="L141" s="3" t="s">
         <v>98</v>
       </c>
       <c r="M141" t="s">
@@ -2821,21 +2749,18 @@
       </c>
     </row>
     <row r="142" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J142" s="13">
+      <c r="J142" s="4">
         <v>0.84301999999999999</v>
       </c>
-      <c r="L142" s="3" t="s">
+      <c r="L142" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="143" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="L143" s="3"/>
-    </row>
     <row r="144" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J144" s="13">
+      <c r="J144" s="4">
         <v>0.84955000000000003</v>
       </c>
-      <c r="L144" s="12" t="s">
+      <c r="L144" s="3" t="s">
         <v>98</v>
       </c>
       <c r="M144" t="s">
@@ -2845,40 +2770,43 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="J145" s="13">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J145" s="4">
         <v>0.84835000000000005</v>
       </c>
-      <c r="L145" s="3" t="s">
+      <c r="L145" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="J147" s="13" t="s">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J147" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="J148" s="13">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J148" s="4">
         <v>0.84965000000000002</v>
       </c>
-      <c r="L148" s="12" t="s">
+      <c r="L148" s="3" t="s">
         <v>105</v>
       </c>
       <c r="M148" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="149" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="J149" s="13">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J149" s="4">
         <v>0.84716000000000002</v>
       </c>
-      <c r="L149" s="12" t="s">
+      <c r="L149" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="L151" s="3" t="s">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J151" s="4">
+        <v>0.86663999999999997</v>
+      </c>
+      <c r="L151" t="s">
         <v>126</v>
       </c>
       <c r="M151" t="s">
@@ -2887,263 +2815,843 @@
       <c r="N151" t="s">
         <v>128</v>
       </c>
-      <c r="O151" s="15">
+      <c r="O151" s="5">
         <v>384192</v>
       </c>
     </row>
-    <row r="152" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="J152" s="13">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J152" s="4">
         <v>0.86516000000000004</v>
       </c>
-      <c r="L152" s="3" t="s">
+      <c r="L152" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="L153" s="3"/>
-    </row>
-    <row r="154" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="L154" s="3"/>
-    </row>
-    <row r="155" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="L155" s="3"/>
-    </row>
-    <row r="156" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="L156" s="3"/>
-    </row>
-    <row r="157" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="L157" s="3"/>
-    </row>
-    <row r="158" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="L158" s="3"/>
-    </row>
-    <row r="159" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="L159" s="3"/>
-    </row>
-    <row r="160" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="L160" s="3"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L161" s="3"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J154" s="4">
+        <v>0.87383</v>
+      </c>
+      <c r="L154" t="s">
+        <v>126</v>
+      </c>
+      <c r="M154" t="s">
+        <v>127</v>
+      </c>
+      <c r="N154" t="s">
+        <v>128</v>
+      </c>
+      <c r="O154" s="5">
+        <v>384192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J155" s="4">
+        <v>0.87448000000000004</v>
+      </c>
+      <c r="L155" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>0.46315000000000001</v>
+      </c>
+      <c r="B159" t="s">
+        <v>131</v>
+      </c>
+      <c r="C159" t="s">
+        <v>133</v>
+      </c>
+      <c r="D159" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="B160" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="4"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="4"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="4"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="4"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="4"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="4"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="4"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A179" s="4"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180" s="4"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182" s="4"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183" s="4"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L162" s="3"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A185" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B163">
+      <c r="B185">
         <v>30000</v>
       </c>
-      <c r="C163">
+      <c r="C185">
         <v>100</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D185" t="s">
         <v>21</v>
       </c>
-      <c r="E163" t="s">
-        <v>16</v>
-      </c>
-      <c r="F163">
+      <c r="E185" t="s">
+        <v>16</v>
+      </c>
+      <c r="F185">
         <v>2</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G185" t="s">
         <v>21</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H185" t="s">
         <v>18</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I185" t="s">
         <v>11</v>
       </c>
-      <c r="J163" s="3">
+      <c r="J185">
         <v>10000</v>
       </c>
-      <c r="L163" s="3"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A186" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B164">
+      <c r="B186">
         <v>30000</v>
       </c>
-      <c r="C164">
+      <c r="C186">
         <v>100</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D186" t="s">
         <v>8</v>
       </c>
-      <c r="E164" t="s">
-        <v>16</v>
-      </c>
-      <c r="F164">
+      <c r="E186" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186">
         <v>2</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G186" t="s">
         <v>8</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H186" t="s">
         <v>17</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I186" t="s">
         <v>11</v>
       </c>
-      <c r="J164" s="3">
+      <c r="J186">
         <v>10000</v>
       </c>
-      <c r="K164" s="1">
+      <c r="K186" s="1">
         <v>0.84499999999999997</v>
       </c>
-      <c r="L164" s="3"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A187" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B165">
+      <c r="B187">
         <v>30000</v>
       </c>
-      <c r="C165">
+      <c r="C187">
         <v>100</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D187" t="s">
         <v>8</v>
       </c>
-      <c r="E165" t="s">
-        <v>16</v>
-      </c>
-      <c r="F165">
+      <c r="E187" t="s">
+        <v>16</v>
+      </c>
+      <c r="F187">
         <v>2</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G187" t="s">
         <v>8</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H187" t="s">
         <v>18</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I187" t="s">
         <v>11</v>
       </c>
-      <c r="J165" s="3">
+      <c r="J187">
         <v>10000</v>
       </c>
-      <c r="K165" s="1">
+      <c r="K187" s="1">
         <v>0.85099999999999998</v>
       </c>
-      <c r="L165" s="3" t="s">
+      <c r="L187" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A188" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B166">
+      <c r="B188">
         <v>30000</v>
       </c>
-      <c r="C166">
+      <c r="C188">
         <v>100</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D188" t="s">
         <v>8</v>
       </c>
-      <c r="E166" t="s">
-        <v>16</v>
-      </c>
-      <c r="F166">
+      <c r="E188" t="s">
+        <v>16</v>
+      </c>
+      <c r="F188">
         <v>2</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G188" t="s">
         <v>8</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H188" t="s">
         <v>17</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I188" t="s">
         <v>11</v>
       </c>
-      <c r="J166" s="3">
+      <c r="J188">
         <v>10000</v>
       </c>
-      <c r="K166" s="1">
+      <c r="K188" s="1">
         <v>0.85799999999999998</v>
       </c>
-      <c r="L166" s="3" t="s">
+      <c r="L188" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A189" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B167">
+      <c r="B189">
         <v>30000</v>
       </c>
-      <c r="C167">
+      <c r="C189">
         <v>100</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D189" t="s">
         <v>8</v>
       </c>
-      <c r="E167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F167">
+      <c r="E189" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189">
         <v>4</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G189" t="s">
         <v>8</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H189" t="s">
         <v>17</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I189" t="s">
         <v>11</v>
       </c>
-      <c r="J167" s="3">
+      <c r="J189">
         <v>10000</v>
       </c>
-      <c r="K167" s="1">
+      <c r="K189" s="1">
         <v>0.86899999999999999</v>
       </c>
-      <c r="L167" s="3" t="s">
+      <c r="L189" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L168" s="3"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L169" s="3"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L170" s="3"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L171" s="3"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L172" s="3"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L173" s="3"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L174" s="3"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L175" s="3"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L176" s="3"/>
-    </row>
-    <row r="177" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L177" s="3"/>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A190" s="4"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A191" s="4"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="4"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="4"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="4"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="4"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="4"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="4"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="4"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="4"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="4"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="4"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="4"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="4"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="4"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="4"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="4"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="4"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="4"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="4"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="4"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="4"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="4"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="4"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="4"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="4"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="4"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="4"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="4"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="4"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="4"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="4"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="4"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="4"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="4"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="4"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="4"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="4"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="4"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="4"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="4"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="4"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="4"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="4"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="4"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="4"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="4"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="4"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="4"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="4"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="4"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="4"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="4"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="4"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="4"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="4"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="4"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="4"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="4"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="4"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="4"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="4"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="4"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="4"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="4"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="4"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="4"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="4"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="4"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="4"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="4"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="4"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="4"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="4"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="4"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="4"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="4"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="4"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="4"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="4"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="4"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="4"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="4"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="4"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="4"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="4"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="4"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="4"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="4"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="4"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="4"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="4"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="4"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="4"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="4"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="4"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="4"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="4"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="4"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="4"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="4"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="4"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="4"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="4"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="4"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="4"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="4"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="4"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="4"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="4"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="4"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="4"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="4"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="4"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="4"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="4"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="4"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="4"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="4"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="4"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="4"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="4"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="4"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="4"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="4"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="4"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="4"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="4"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="4"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="4"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="4"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="4"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE52ACA-6EE6-4002-AB27-A08E908F7F93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BE0042-4C1E-4D24-9408-50977507B81B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="138">
   <si>
     <t>分支名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,6 +557,18 @@
   </si>
   <si>
     <t>1W个batch完全收敛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积快叠加数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2852,10 +2864,33 @@
         <v>105</v>
       </c>
     </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J157" s="4">
+        <v>0.87517</v>
+      </c>
+      <c r="L157" t="s">
+        <v>126</v>
+      </c>
+      <c r="M157" t="s">
+        <v>135</v>
+      </c>
+      <c r="N157" t="s">
+        <v>128</v>
+      </c>
+      <c r="O157" s="5">
+        <v>384192</v>
+      </c>
+    </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>130</v>
       </c>
+      <c r="J158" s="4">
+        <v>0.87075000000000002</v>
+      </c>
+      <c r="L158" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
@@ -2878,80 +2913,123 @@
       <c r="B160" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F160" t="s">
+        <v>136</v>
+      </c>
+      <c r="H160" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F161" s="4">
+        <v>0.89581</v>
+      </c>
+      <c r="G161" t="s">
+        <v>131</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F162" s="4">
+        <v>0.89502000000000004</v>
+      </c>
+      <c r="G162" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F163" s="4"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F164" s="4"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F165" s="4"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F169" s="4"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F170" s="4"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F171" s="4"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F174" s="4"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
+      <c r="F176" s="4"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
+      <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
+      <c r="F178" s="4"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
+      <c r="F179" s="4"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
+      <c r="F180" s="4"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
+      <c r="F181" s="4"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
+      <c r="F182" s="4"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
+      <c r="F183" s="4"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="F184" s="4"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
@@ -2969,7 +3047,7 @@
       <c r="E185" t="s">
         <v>16</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="4">
         <v>2</v>
       </c>
       <c r="G185" t="s">
@@ -3001,7 +3079,7 @@
       <c r="E186" t="s">
         <v>16</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="4">
         <v>2</v>
       </c>
       <c r="G186" t="s">
@@ -3036,7 +3114,7 @@
       <c r="E187" t="s">
         <v>16</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="4">
         <v>2</v>
       </c>
       <c r="G187" t="s">
@@ -3074,7 +3152,7 @@
       <c r="E188" t="s">
         <v>16</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="4">
         <v>2</v>
       </c>
       <c r="G188" t="s">
@@ -3112,7 +3190,7 @@
       <c r="E189" t="s">
         <v>16</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="4">
         <v>4</v>
       </c>
       <c r="G189" t="s">

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BE0042-4C1E-4D24-9408-50977507B81B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79E6290-D93A-45FA-97D5-E6B4EA2F6D43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,7 +910,7 @@
   <dimension ref="A1:O362"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="H162" sqref="H162"/>
+      <selection activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79E6290-D93A-45FA-97D5-E6B4EA2F6D43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF8C79-71F8-4F0F-9102-C99B5F0E9B69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="139">
   <si>
     <t>分支名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,10 +477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>128，64，64：384，192，10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fc:60,30,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,6 +565,14 @@
   </si>
   <si>
     <t>卷积快叠加数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8个网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same情况下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="I163" sqref="I163"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2672,7 +2676,7 @@
         <v>98</v>
       </c>
       <c r="M122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="10:14" x14ac:dyDescent="0.3">
@@ -2697,7 +2701,7 @@
         <v>112</v>
       </c>
       <c r="N130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="10:14" x14ac:dyDescent="0.3">
@@ -2708,7 +2712,7 @@
         <v>98</v>
       </c>
       <c r="M131" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="10:14" x14ac:dyDescent="0.3">
@@ -2716,7 +2720,7 @@
         <v>0.82460999999999995</v>
       </c>
       <c r="L134" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="10:14" x14ac:dyDescent="0.3">
@@ -2724,7 +2728,7 @@
         <v>0.83011000000000001</v>
       </c>
       <c r="L135" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="137" spans="10:14" x14ac:dyDescent="0.3">
@@ -2732,10 +2736,10 @@
         <v>0.82369999999999999</v>
       </c>
       <c r="L137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M137" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="10:14" x14ac:dyDescent="0.3">
@@ -2743,7 +2747,7 @@
         <v>0.84733000000000003</v>
       </c>
       <c r="L138" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141" spans="10:14" x14ac:dyDescent="0.3">
@@ -2754,10 +2758,10 @@
         <v>98</v>
       </c>
       <c r="M141" t="s">
+        <v>122</v>
+      </c>
+      <c r="N141" t="s">
         <v>123</v>
-      </c>
-      <c r="N141" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="142" spans="10:14" x14ac:dyDescent="0.3">
@@ -2765,7 +2769,7 @@
         <v>0.84301999999999999</v>
       </c>
       <c r="L142" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144" spans="10:14" x14ac:dyDescent="0.3">
@@ -2776,10 +2780,10 @@
         <v>98</v>
       </c>
       <c r="M144" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -2787,12 +2791,12 @@
         <v>0.84835000000000005</v>
       </c>
       <c r="L145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J147" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
@@ -2803,7 +2807,10 @@
         <v>105</v>
       </c>
       <c r="M148" t="s">
-        <v>114</v>
+        <v>127</v>
+      </c>
+      <c r="N148" s="5">
+        <v>384192</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -2819,13 +2826,13 @@
         <v>0.86663999999999997</v>
       </c>
       <c r="L151" t="s">
+        <v>125</v>
+      </c>
+      <c r="M151" t="s">
         <v>126</v>
       </c>
-      <c r="M151" t="s">
+      <c r="N151" t="s">
         <v>127</v>
-      </c>
-      <c r="N151" t="s">
-        <v>128</v>
       </c>
       <c r="O151" s="5">
         <v>384192</v>
@@ -2836,7 +2843,7 @@
         <v>0.86516000000000004</v>
       </c>
       <c r="L152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -2844,13 +2851,13 @@
         <v>0.87383</v>
       </c>
       <c r="L154" t="s">
+        <v>125</v>
+      </c>
+      <c r="M154" t="s">
         <v>126</v>
       </c>
-      <c r="M154" t="s">
+      <c r="N154" t="s">
         <v>127</v>
-      </c>
-      <c r="N154" t="s">
-        <v>128</v>
       </c>
       <c r="O154" s="5">
         <v>384192</v>
@@ -2869,13 +2876,13 @@
         <v>0.87517</v>
       </c>
       <c r="L157" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M157" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N157" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O157" s="5">
         <v>384192</v>
@@ -2883,7 +2890,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J158" s="4">
         <v>0.87075000000000002</v>
@@ -2897,13 +2904,13 @@
         <v>0.46315000000000001</v>
       </c>
       <c r="B159" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C159" t="s">
+        <v>132</v>
+      </c>
+      <c r="D159" t="s">
         <v>133</v>
-      </c>
-      <c r="D159" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -2911,89 +2918,140 @@
         <v>0.45290000000000002</v>
       </c>
       <c r="B160" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F160" t="s">
+        <v>135</v>
+      </c>
+      <c r="H160" t="s">
         <v>136</v>
       </c>
-      <c r="H160" t="s">
+      <c r="J160" s="4">
+        <v>0.87233000000000005</v>
+      </c>
+      <c r="L160" t="s">
+        <v>125</v>
+      </c>
+      <c r="M160" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="N160" t="s">
+        <v>127</v>
+      </c>
+      <c r="O160" s="5">
+        <v>384192</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="F161" s="4">
         <v>0.89581</v>
       </c>
       <c r="G161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J161" s="4">
+        <v>0.87326999999999999</v>
+      </c>
+      <c r="L161" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="F162" s="4">
         <v>0.89502000000000004</v>
       </c>
       <c r="G162" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
-      <c r="F164" s="4"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F164" s="4">
+        <v>0.86738000000000004</v>
+      </c>
+      <c r="G164" t="s">
+        <v>103</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="F165" s="4"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G165" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
-      <c r="F167" s="4"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F167" s="4">
+        <v>0.86738000000000004</v>
+      </c>
+      <c r="G167" t="s">
+        <v>103</v>
+      </c>
+      <c r="H167">
+        <v>4</v>
+      </c>
+      <c r="I167" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
-      <c r="F168" s="4"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F168" s="4">
+        <v>0.86248999999999998</v>
+      </c>
+      <c r="G168" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="F176" s="4"/>
     </row>
